--- a/BackTest/2020-01-22 BackTest CON.xlsx
+++ b/BackTest/2020-01-22 BackTest CON.xlsx
@@ -2563,7 +2563,7 @@
         <v>-4287813.6723</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-4578513.541900001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4663818.337900001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4629376.0259</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-4452215.886899999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-4544301.238899999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-5170469.017600001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-5132422.277600001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-5054326.337600001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-4349389.486100003</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-4225108.809100001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-4165549.5566</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-4100706.7526</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-4139418.309599999</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-4249553.609599999</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-4391453.220899999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -15565,10 +15565,14 @@
         <v>-8573245.960116263</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="J460" t="n">
+        <v>3.141</v>
+      </c>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
@@ -15598,11 +15602,19 @@
         <v>-8618501.556116264</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="J461" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15643,19 @@
         <v>-8745654.825016264</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="J462" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15684,19 @@
         <v>-8637922.477016265</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="J463" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15725,19 @@
         <v>-8738445.969016265</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J464" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15766,19 @@
         <v>-8621623.155016266</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="J465" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15807,19 @@
         <v>-8621623.155016266</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="J466" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15848,19 @@
         <v>-9127186.474416265</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="J467" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +15889,19 @@
         <v>-9233717.346416265</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="J468" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +15930,19 @@
         <v>-9233717.346416265</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="J469" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +15971,19 @@
         <v>-9189262.734416265</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="J470" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16012,19 @@
         <v>-9279373.434416264</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="J471" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16053,19 @@
         <v>-9233316.854416264</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="J472" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16002,7 +16102,11 @@
       <c r="J473" t="n">
         <v>3.141</v>
       </c>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16041,7 +16145,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L474" t="n">
@@ -21277,7 +21381,7 @@
         <v>-6967975.261116266</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
@@ -21285,11 +21389,11 @@
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L608" t="n">
-        <v>1</v>
+        <v>1.004551098376313</v>
       </c>
       <c r="M608" t="inlineStr"/>
     </row>
@@ -21319,14 +21423,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21358,14 +21456,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21397,14 +21489,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21436,14 +21522,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21475,14 +21555,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21514,14 +21588,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21553,14 +21621,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21592,14 +21654,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21631,14 +21687,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21670,14 +21720,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21709,14 +21753,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21745,17 +21783,11 @@
         <v>-6929948.722616265</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21784,17 +21816,11 @@
         <v>-7033676.150616265</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21826,14 +21852,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21865,14 +21885,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21904,14 +21918,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21940,17 +21948,11 @@
         <v>-7028069.262616266</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21979,17 +21981,11 @@
         <v>-7133398.658616265</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22018,17 +22014,11 @@
         <v>-7029689.766516265</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22057,17 +22047,11 @@
         <v>-7164004.577016265</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22096,17 +22080,11 @@
         <v>-7132365.709016265</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22135,17 +22113,11 @@
         <v>-7290960.541016266</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22174,17 +22146,11 @@
         <v>-7291276.480316265</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22216,14 +22182,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22255,14 +22215,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22291,17 +22245,11 @@
         <v>-7348947.328316266</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22330,17 +22278,11 @@
         <v>-7431849.172316265</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22372,14 +22314,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22411,14 +22347,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22450,14 +22380,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22489,14 +22413,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22528,14 +22446,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22567,14 +22479,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22606,14 +22512,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22645,14 +22545,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22684,14 +22578,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22723,14 +22611,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22762,14 +22644,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22801,14 +22677,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22840,14 +22710,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22879,14 +22743,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22918,14 +22776,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22957,14 +22809,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22996,14 +22842,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23035,14 +22875,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23074,14 +22908,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23113,14 +22941,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23152,14 +22974,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23191,14 +23007,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23230,14 +23040,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23269,14 +23073,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23308,14 +23106,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23347,14 +23139,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23386,14 +23172,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23425,14 +23205,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23464,14 +23238,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23503,14 +23271,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23539,17 +23301,11 @@
         <v>-6625076.171890462</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23578,17 +23334,11 @@
         <v>-6534965.471890462</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23620,14 +23370,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23659,14 +23403,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23698,14 +23436,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23737,14 +23469,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23776,14 +23502,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23815,14 +23535,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23854,14 +23568,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23893,14 +23601,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23932,14 +23634,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23971,14 +23667,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24010,14 +23700,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24049,14 +23733,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24088,14 +23766,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24127,14 +23799,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24166,14 +23832,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24205,14 +23865,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24244,14 +23898,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24283,14 +23931,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24322,14 +23964,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24361,14 +23997,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24400,14 +24030,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24439,14 +24063,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24478,14 +24096,8 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24517,14 +24129,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24556,14 +24162,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24595,14 +24195,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24634,14 +24228,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24673,14 +24261,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24712,14 +24294,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24751,14 +24327,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24790,14 +24360,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24829,14 +24393,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24868,14 +24426,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24907,14 +24459,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24946,14 +24492,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24985,14 +24525,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25024,14 +24558,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25063,14 +24591,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25102,14 +24624,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25141,14 +24657,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25180,14 +24690,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25219,14 +24723,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25258,14 +24756,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25297,14 +24789,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25336,14 +24822,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25375,14 +24855,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25414,14 +24888,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25453,14 +24921,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25492,14 +24954,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25531,14 +24987,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25570,14 +25020,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25609,14 +25053,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25648,14 +25086,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25687,14 +25119,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25726,14 +25152,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25765,14 +25185,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25804,14 +25218,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25843,14 +25251,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25882,14 +25284,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25921,14 +25317,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25960,14 +25350,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25999,14 +25383,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26038,14 +25416,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26077,14 +25449,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26116,14 +25482,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26155,14 +25515,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26191,17 +25545,11 @@
         <v>-6646674.502490461</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26233,14 +25581,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26269,17 +25611,11 @@
         <v>-6655485.326490461</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26308,17 +25644,11 @@
         <v>-6496794.376490461</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26347,17 +25677,11 @@
         <v>-6603725.740490461</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26389,14 +25713,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26428,14 +25746,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26467,14 +25779,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26506,14 +25812,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26545,14 +25845,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26584,14 +25878,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26623,14 +25911,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26662,14 +25944,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26701,14 +25977,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26740,14 +26010,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26776,17 +26040,11 @@
         <v>-6382989.809290459</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26815,17 +26073,11 @@
         <v>-6453075.909290459</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26857,14 +26109,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26896,14 +26142,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26935,14 +26175,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26971,17 +26205,11 @@
         <v>-6452479.405290459</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27010,17 +26238,11 @@
         <v>-6531953.173990459</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27049,17 +26271,11 @@
         <v>-6473080.849990459</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27088,17 +26304,11 @@
         <v>-6473080.849990459</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27127,17 +26337,11 @@
         <v>-6565230.06469046</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27166,17 +26370,11 @@
         <v>-6565230.06469046</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27205,17 +26403,11 @@
         <v>-6568231.81729046</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27244,17 +26436,11 @@
         <v>-6568231.81729046</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27283,17 +26469,11 @@
         <v>-5884384.477894614</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27322,17 +26502,11 @@
         <v>-5930441.057894614</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27361,17 +26535,11 @@
         <v>-5853146.101894613</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27400,17 +26568,11 @@
         <v>-5812696.409894614</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27439,17 +26601,11 @@
         <v>-5900246.638894614</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27478,17 +26634,11 @@
         <v>-5823752.666894614</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27520,14 +26670,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27556,17 +26700,11 @@
         <v>-5792514.290894614</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27598,14 +26736,8 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27637,14 +26769,8 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27676,14 +26802,8 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27715,14 +26835,8 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27754,14 +26868,8 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27793,14 +26901,8 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27832,14 +26934,8 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27871,14 +26967,8 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27910,14 +27000,8 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27949,14 +27033,8 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27988,14 +27066,8 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -28027,14 +27099,8 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28066,14 +27132,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28105,14 +27165,8 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28144,14 +27198,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28183,14 +27231,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28222,14 +27264,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28261,14 +27297,8 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28300,14 +27330,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28339,14 +27363,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28378,14 +27396,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28417,14 +27429,8 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28456,14 +27462,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28495,14 +27495,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28534,14 +27528,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28573,14 +27561,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28612,14 +27594,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28651,14 +27627,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28690,14 +27660,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28729,14 +27693,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28768,14 +27726,8 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28807,14 +27759,8 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28846,14 +27792,8 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28885,14 +27825,8 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28924,14 +27858,8 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28963,14 +27891,8 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -29002,14 +27924,8 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -29041,14 +27957,8 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -29080,14 +27990,8 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -29119,14 +28023,8 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -29158,14 +28056,8 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -29197,14 +28089,8 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29236,14 +28122,8 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29275,14 +28155,8 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29314,14 +28188,8 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29353,14 +28221,8 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29392,14 +28254,8 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29431,14 +28287,8 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29470,14 +28320,8 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29509,14 +28353,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29548,14 +28386,8 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29587,14 +28419,8 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29626,14 +28452,8 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29665,14 +28485,8 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29704,14 +28518,8 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29743,14 +28551,8 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29782,14 +28584,8 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29821,14 +28617,8 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29860,14 +28650,8 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29899,14 +28683,8 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29938,14 +28716,8 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29977,14 +28749,8 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -30016,14 +28782,8 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -30055,14 +28815,8 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -30094,14 +28848,8 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -30133,14 +28881,8 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -30172,14 +28914,8 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -30211,14 +28947,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -30250,14 +28980,8 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -30289,14 +29013,8 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -30328,14 +29046,8 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -30367,14 +29079,8 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30406,14 +29112,8 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30445,14 +29145,8 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30484,14 +29178,8 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30523,14 +29211,8 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30562,14 +29244,8 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30601,14 +29277,8 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30640,14 +29310,8 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30679,14 +29343,8 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30718,14 +29376,8 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30757,14 +29409,8 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30796,14 +29442,8 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30835,14 +29475,8 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30874,14 +29508,8 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30913,14 +29541,8 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30952,14 +29574,8 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30991,14 +29607,8 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31030,14 +29640,8 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31069,14 +29673,8 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31108,14 +29706,8 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31147,14 +29739,8 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31186,14 +29772,8 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31225,14 +29805,8 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31264,14 +29838,8 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31303,14 +29871,8 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31342,14 +29904,8 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31381,14 +29937,8 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31420,14 +29970,8 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31459,14 +30003,8 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31498,14 +30036,8 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31537,14 +30069,8 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31576,14 +30102,8 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31615,14 +30135,8 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31654,14 +30168,8 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31693,14 +30201,8 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31732,14 +30234,8 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31771,14 +30267,8 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31810,14 +30300,8 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J878" t="inlineStr"/>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31849,14 +30333,8 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31888,14 +30366,8 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31927,14 +30399,8 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31966,14 +30432,8 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32005,14 +30465,8 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32044,14 +30498,8 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -32083,14 +30531,8 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -32122,14 +30564,8 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32161,14 +30597,8 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32200,14 +30630,8 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32239,14 +30663,8 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32278,14 +30696,8 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32317,14 +30729,8 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32356,14 +30762,8 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32395,14 +30795,8 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32434,14 +30828,8 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32473,14 +30861,8 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32512,14 +30894,8 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32551,14 +30927,8 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32590,14 +30960,8 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32629,14 +30993,8 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32668,14 +31026,8 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32707,14 +31059,8 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32746,14 +31092,8 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32785,14 +31125,8 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32824,14 +31158,8 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32863,14 +31191,8 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32902,14 +31224,8 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32941,14 +31257,8 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32980,14 +31290,8 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -33019,14 +31323,8 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -33058,14 +31356,8 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -33097,14 +31389,8 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -33136,14 +31422,8 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -33175,14 +31455,8 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -33214,14 +31488,8 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -33253,14 +31521,8 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -33292,14 +31554,8 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -33331,14 +31587,8 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -33370,14 +31620,8 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -33409,14 +31653,8 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -33448,14 +31686,8 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -33487,14 +31719,8 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -33526,14 +31752,8 @@
         <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -33565,14 +31785,8 @@
         <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -33604,14 +31818,8 @@
         <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -33643,14 +31851,8 @@
         <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J925" t="inlineStr"/>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -33682,14 +31884,8 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J926" t="inlineStr"/>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -33721,14 +31917,8 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -33760,14 +31950,8 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J928" t="inlineStr"/>
+      <c r="K928" t="inlineStr"/>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -33799,14 +31983,8 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J929" t="inlineStr"/>
+      <c r="K929" t="inlineStr"/>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -33838,14 +32016,8 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K930" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J930" t="inlineStr"/>
+      <c r="K930" t="inlineStr"/>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -33877,14 +32049,8 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K931" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J931" t="inlineStr"/>
+      <c r="K931" t="inlineStr"/>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -33916,14 +32082,8 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J932" t="inlineStr"/>
+      <c r="K932" t="inlineStr"/>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -33955,14 +32115,8 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K933" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J933" t="inlineStr"/>
+      <c r="K933" t="inlineStr"/>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -33994,14 +32148,8 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K934" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J934" t="inlineStr"/>
+      <c r="K934" t="inlineStr"/>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -34033,14 +32181,8 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J935" t="inlineStr"/>
+      <c r="K935" t="inlineStr"/>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -34072,14 +32214,8 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J936" t="inlineStr"/>
+      <c r="K936" t="inlineStr"/>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -34111,14 +32247,8 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K937" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J937" t="inlineStr"/>
+      <c r="K937" t="inlineStr"/>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -34150,14 +32280,8 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K938" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J938" t="inlineStr"/>
+      <c r="K938" t="inlineStr"/>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -34189,14 +32313,8 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K939" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J939" t="inlineStr"/>
+      <c r="K939" t="inlineStr"/>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -34228,14 +32346,8 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K940" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J940" t="inlineStr"/>
+      <c r="K940" t="inlineStr"/>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -34267,14 +32379,8 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K941" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J941" t="inlineStr"/>
+      <c r="K941" t="inlineStr"/>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -34306,14 +32412,8 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J942" t="inlineStr"/>
+      <c r="K942" t="inlineStr"/>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -34345,14 +32445,8 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K943" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J943" t="inlineStr"/>
+      <c r="K943" t="inlineStr"/>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -34384,14 +32478,8 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J944" t="inlineStr"/>
+      <c r="K944" t="inlineStr"/>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -34423,14 +32511,8 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K945" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J945" t="inlineStr"/>
+      <c r="K945" t="inlineStr"/>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -34462,14 +32544,8 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K946" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J946" t="inlineStr"/>
+      <c r="K946" t="inlineStr"/>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -34501,14 +32577,8 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J947" t="inlineStr"/>
+      <c r="K947" t="inlineStr"/>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -34540,14 +32610,8 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K948" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J948" t="inlineStr"/>
+      <c r="K948" t="inlineStr"/>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -34579,14 +32643,8 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J949" t="inlineStr"/>
+      <c r="K949" t="inlineStr"/>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -34618,14 +32676,8 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J950" t="inlineStr"/>
+      <c r="K950" t="inlineStr"/>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -34657,14 +32709,8 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J951" t="inlineStr"/>
+      <c r="K951" t="inlineStr"/>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -34696,14 +32742,8 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K952" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J952" t="inlineStr"/>
+      <c r="K952" t="inlineStr"/>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -34735,14 +32775,8 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K953" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J953" t="inlineStr"/>
+      <c r="K953" t="inlineStr"/>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -34774,14 +32808,8 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J954" t="inlineStr"/>
+      <c r="K954" t="inlineStr"/>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -34813,14 +32841,8 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K955" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J955" t="inlineStr"/>
+      <c r="K955" t="inlineStr"/>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -34849,19 +32871,11 @@
         <v>-8783045.690159498</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J956" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K956" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
+      <c r="J956" t="inlineStr"/>
+      <c r="K956" t="inlineStr"/>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -34893,14 +32907,8 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K957" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J957" t="inlineStr"/>
+      <c r="K957" t="inlineStr"/>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -34932,14 +32940,8 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J958" t="inlineStr"/>
+      <c r="K958" t="inlineStr"/>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -34971,14 +32973,8 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J959" t="inlineStr"/>
+      <c r="K959" t="inlineStr"/>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -35010,14 +33006,8 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K960" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J960" t="inlineStr"/>
+      <c r="K960" t="inlineStr"/>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -35049,14 +33039,8 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J961" t="inlineStr"/>
+      <c r="K961" t="inlineStr"/>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -35088,14 +33072,8 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K962" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J962" t="inlineStr"/>
+      <c r="K962" t="inlineStr"/>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -35127,14 +33105,8 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K963" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr"/>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -35166,14 +33138,8 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -35205,14 +33171,8 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K965" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J965" t="inlineStr"/>
+      <c r="K965" t="inlineStr"/>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -35244,14 +33204,8 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J966" t="inlineStr"/>
+      <c r="K966" t="inlineStr"/>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -35283,14 +33237,8 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J967" t="inlineStr"/>
+      <c r="K967" t="inlineStr"/>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -35322,14 +33270,8 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K968" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J968" t="inlineStr"/>
+      <c r="K968" t="inlineStr"/>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -35361,14 +33303,8 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K969" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J969" t="inlineStr"/>
+      <c r="K969" t="inlineStr"/>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -35400,14 +33336,8 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J970" t="inlineStr"/>
+      <c r="K970" t="inlineStr"/>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -35439,14 +33369,8 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J971" t="inlineStr"/>
+      <c r="K971" t="inlineStr"/>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -35478,14 +33402,8 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K972" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J972" t="inlineStr"/>
+      <c r="K972" t="inlineStr"/>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -35517,14 +33435,8 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J973" t="inlineStr"/>
+      <c r="K973" t="inlineStr"/>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -35556,14 +33468,8 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J974" t="inlineStr"/>
+      <c r="K974" t="inlineStr"/>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -35595,14 +33501,8 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J975" t="inlineStr"/>
+      <c r="K975" t="inlineStr"/>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -35634,14 +33534,8 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K976" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J976" t="inlineStr"/>
+      <c r="K976" t="inlineStr"/>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -35673,14 +33567,8 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J977" t="inlineStr"/>
+      <c r="K977" t="inlineStr"/>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -35712,14 +33600,8 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J978" t="inlineStr"/>
+      <c r="K978" t="inlineStr"/>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -35751,14 +33633,8 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K979" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J979" t="inlineStr"/>
+      <c r="K979" t="inlineStr"/>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -35790,14 +33666,8 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K980" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J980" t="inlineStr"/>
+      <c r="K980" t="inlineStr"/>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -35829,14 +33699,8 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K981" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J981" t="inlineStr"/>
+      <c r="K981" t="inlineStr"/>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -35868,14 +33732,8 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K982" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J982" t="inlineStr"/>
+      <c r="K982" t="inlineStr"/>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -35907,14 +33765,8 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J983" t="inlineStr"/>
+      <c r="K983" t="inlineStr"/>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -35946,14 +33798,8 @@
         <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
-      <c r="J984" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K984" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J984" t="inlineStr"/>
+      <c r="K984" t="inlineStr"/>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -35985,14 +33831,8 @@
         <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
-      <c r="J985" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J985" t="inlineStr"/>
+      <c r="K985" t="inlineStr"/>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -36024,14 +33864,8 @@
         <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
-      <c r="J986" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K986" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J986" t="inlineStr"/>
+      <c r="K986" t="inlineStr"/>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -36063,14 +33897,8 @@
         <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
-      <c r="J987" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J987" t="inlineStr"/>
+      <c r="K987" t="inlineStr"/>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -36102,14 +33930,8 @@
         <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
-      <c r="J988" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J988" t="inlineStr"/>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -36141,14 +33963,8 @@
         <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
-      <c r="J989" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J989" t="inlineStr"/>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -36180,14 +33996,8 @@
         <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
-      <c r="J990" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J990" t="inlineStr"/>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -36219,14 +34029,8 @@
         <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
-      <c r="J991" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J991" t="inlineStr"/>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -36258,14 +34062,8 @@
         <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
-      <c r="J992" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J992" t="inlineStr"/>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -36297,14 +34095,8 @@
         <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
-      <c r="J993" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J993" t="inlineStr"/>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -36336,14 +34128,8 @@
         <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
-      <c r="J994" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J994" t="inlineStr"/>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -36375,14 +34161,8 @@
         <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
-      <c r="J995" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J995" t="inlineStr"/>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -36414,14 +34194,8 @@
         <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
-      <c r="J996" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J996" t="inlineStr"/>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -36453,14 +34227,8 @@
         <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
-      <c r="J997" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J997" t="inlineStr"/>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -36492,14 +34260,8 @@
         <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
-      <c r="J998" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J998" t="inlineStr"/>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -36531,14 +34293,8 @@
         <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
-      <c r="J999" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J999" t="inlineStr"/>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -36570,14 +34326,8 @@
         <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1000" t="inlineStr"/>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -36609,14 +34359,8 @@
         <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1001" t="inlineStr"/>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -36648,14 +34392,8 @@
         <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1002" t="inlineStr"/>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -36687,14 +34425,8 @@
         <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1003" t="inlineStr"/>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -36726,14 +34458,8 @@
         <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1004" t="inlineStr"/>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -36765,14 +34491,8 @@
         <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1005" t="inlineStr"/>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -36804,14 +34524,8 @@
         <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1006" t="inlineStr"/>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -36843,14 +34557,8 @@
         <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1007" t="inlineStr"/>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -36882,14 +34590,8 @@
         <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1008" t="inlineStr"/>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -36921,14 +34623,8 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1009" t="inlineStr"/>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -36960,14 +34656,8 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1010" t="inlineStr"/>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -36999,14 +34689,8 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1011" t="inlineStr"/>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -37038,14 +34722,8 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1012" t="inlineStr"/>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -37077,14 +34755,8 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1013" t="inlineStr"/>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -37116,14 +34788,8 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1014" t="inlineStr"/>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -37155,14 +34821,8 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1015" t="inlineStr"/>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -37194,14 +34854,8 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1016" t="inlineStr"/>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -37233,14 +34887,8 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1017" t="inlineStr"/>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -37272,14 +34920,8 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1018" t="inlineStr"/>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -37311,14 +34953,8 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1019" t="inlineStr"/>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -37350,14 +34986,8 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1020" t="inlineStr"/>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -37389,14 +35019,8 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1021" t="inlineStr"/>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -37428,14 +35052,8 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1022" t="inlineStr"/>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -37467,14 +35085,8 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1023" t="inlineStr"/>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -37506,14 +35118,8 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1024" t="inlineStr"/>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -37545,14 +35151,8 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1025" t="inlineStr"/>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -37584,14 +35184,8 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1026" t="inlineStr"/>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -37623,14 +35217,8 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1027" t="inlineStr"/>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -37662,14 +35250,8 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1028" t="inlineStr"/>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -37701,14 +35283,8 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1029" t="inlineStr"/>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -37740,14 +35316,8 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1030" t="inlineStr"/>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -37779,14 +35349,8 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1031" t="inlineStr"/>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -37818,14 +35382,8 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1032" t="inlineStr"/>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -37857,14 +35415,8 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1033" t="inlineStr"/>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -37896,14 +35448,8 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1034" t="inlineStr"/>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -37935,14 +35481,8 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1035" t="inlineStr"/>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -37974,14 +35514,8 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1036" t="inlineStr"/>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -38013,14 +35547,8 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1037" t="inlineStr"/>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -38052,14 +35580,8 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1038" t="inlineStr"/>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -38091,14 +35613,8 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1039" t="inlineStr"/>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -38130,14 +35646,8 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1040" t="inlineStr"/>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -38169,14 +35679,8 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1041" t="inlineStr"/>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -38208,14 +35712,8 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -38247,14 +35745,8 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -38286,14 +35778,8 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>3.141</v>
-      </c>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
